--- a/Code/Results/Cases/Case_0_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04063639782744133</v>
+        <v>0.07666397707932049</v>
       </c>
       <c r="D2">
-        <v>0.04854627231867426</v>
+        <v>0.1304900858569109</v>
       </c>
       <c r="E2">
-        <v>0.03772793336074187</v>
+        <v>0.07707643088466121</v>
       </c>
       <c r="F2">
-        <v>1.833381800530631</v>
+        <v>2.379194894897779</v>
       </c>
       <c r="G2">
-        <v>0.0008123421889862772</v>
+        <v>0.00256018347049029</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.530006564495977</v>
+        <v>2.190033717674908</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.217370225496779</v>
+        <v>2.397405336578231</v>
       </c>
       <c r="L2">
-        <v>0.05809980639043033</v>
+        <v>0.1216957980070674</v>
       </c>
       <c r="M2">
-        <v>0.8507598989214102</v>
+        <v>0.6167442470982891</v>
       </c>
       <c r="N2">
-        <v>0.9735085022359442</v>
+        <v>2.060436144321823</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03706263438593282</v>
+        <v>0.07609603802299603</v>
       </c>
       <c r="D3">
-        <v>0.05167986291714399</v>
+        <v>0.1318212558796983</v>
       </c>
       <c r="E3">
-        <v>0.03566045237330151</v>
+        <v>0.07700476154855274</v>
       </c>
       <c r="F3">
-        <v>1.688958179410349</v>
+        <v>2.361058283553419</v>
       </c>
       <c r="G3">
-        <v>0.0008206879520717857</v>
+        <v>0.002565446804889912</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.422085959539629</v>
+        <v>2.179414616119942</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.660500053856822</v>
+        <v>2.262280513432131</v>
       </c>
       <c r="L3">
-        <v>0.05599695586339593</v>
+        <v>0.1219348201225152</v>
       </c>
       <c r="M3">
-        <v>0.7435103002022458</v>
+        <v>0.5922771613383091</v>
       </c>
       <c r="N3">
-        <v>1.036346446764572</v>
+        <v>2.084487371412415</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03490512365287657</v>
+        <v>0.07577229705513844</v>
       </c>
       <c r="D4">
-        <v>0.05368206286571997</v>
+        <v>0.1326775970894847</v>
       </c>
       <c r="E4">
-        <v>0.03444594277785917</v>
+        <v>0.0769907625790669</v>
       </c>
       <c r="F4">
-        <v>1.604568496875885</v>
+        <v>2.351385231975655</v>
       </c>
       <c r="G4">
-        <v>0.0008259501838699255</v>
+        <v>0.002568848142911478</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.35936350431848</v>
+        <v>2.174171333713943</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.323845490777444</v>
+        <v>2.180622279277827</v>
       </c>
       <c r="L4">
-        <v>0.05480913253544983</v>
+        <v>0.1221326516306682</v>
       </c>
       <c r="M4">
-        <v>0.678797565067633</v>
+        <v>0.5775979327944469</v>
       </c>
       <c r="N4">
-        <v>1.076619085330112</v>
+        <v>2.099982966035345</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03403439331782465</v>
+        <v>0.07564667176072248</v>
       </c>
       <c r="D5">
-        <v>0.05451682430325278</v>
+        <v>0.1330363611740228</v>
       </c>
       <c r="E5">
-        <v>0.03396388719455601</v>
+        <v>0.07699260667528307</v>
       </c>
       <c r="F5">
-        <v>1.571161529064952</v>
+        <v>2.347809934170527</v>
       </c>
       <c r="G5">
-        <v>0.000828130820120454</v>
+        <v>0.002570277016704092</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.334618133198958</v>
+        <v>2.172354746305743</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.187805327451258</v>
+        <v>2.147673813637368</v>
       </c>
       <c r="L5">
-        <v>0.05434935878817271</v>
+        <v>0.1222261031390879</v>
       </c>
       <c r="M5">
-        <v>0.6526783394291513</v>
+        <v>0.5717022369385987</v>
       </c>
       <c r="N5">
-        <v>1.09343909224738</v>
+        <v>2.106480344901101</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03389029940802146</v>
+        <v>0.07562619302445484</v>
       </c>
       <c r="D6">
-        <v>0.05465655229970157</v>
+        <v>0.1330965252274838</v>
       </c>
       <c r="E6">
-        <v>0.03388459311908854</v>
+        <v>0.07699336892258302</v>
       </c>
       <c r="F6">
-        <v>1.565671023613007</v>
+        <v>2.347238359396755</v>
       </c>
       <c r="G6">
-        <v>0.0008284951449160839</v>
+        <v>0.002570516869438923</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.330556276131944</v>
+        <v>2.172072407435365</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.165280538148295</v>
+        <v>2.1422225173161</v>
       </c>
       <c r="L6">
-        <v>0.05427443235317497</v>
+        <v>0.1222423955624805</v>
       </c>
       <c r="M6">
-        <v>0.6483555068814653</v>
+        <v>0.5707284620650412</v>
       </c>
       <c r="N6">
-        <v>1.096256266974255</v>
+        <v>2.107570262348315</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03489334735491667</v>
+        <v>0.0757705772827677</v>
       </c>
       <c r="D7">
-        <v>0.05369324543390253</v>
+        <v>0.132682395847139</v>
       </c>
       <c r="E7">
-        <v>0.03443939070582758</v>
+        <v>0.07699075687944479</v>
       </c>
       <c r="F7">
-        <v>1.604114101232796</v>
+        <v>2.351335531862077</v>
       </c>
       <c r="G7">
-        <v>0.0008259794440186975</v>
+        <v>0.00256886723981083</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.359026577412848</v>
+        <v>2.174145539862437</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.322006372699207</v>
+        <v>2.18017659857486</v>
       </c>
       <c r="L7">
-        <v>0.05480283574330613</v>
+        <v>0.1221338599989998</v>
       </c>
       <c r="M7">
-        <v>0.6784443365160229</v>
+        <v>0.57751807259217</v>
       </c>
       <c r="N7">
-        <v>1.076844292090939</v>
+        <v>2.100069852197358</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03939603610451314</v>
+        <v>0.07646298035036381</v>
       </c>
       <c r="D8">
-        <v>0.04960999887764572</v>
+        <v>0.1309409745263217</v>
       </c>
       <c r="E8">
-        <v>0.03700307048601381</v>
+        <v>0.07704549330775912</v>
       </c>
       <c r="F8">
-        <v>1.782634751766949</v>
+        <v>2.372636962133981</v>
       </c>
       <c r="G8">
-        <v>0.0008151921636958506</v>
+        <v>0.00256196314987807</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.492012827188873</v>
+        <v>2.186106623958437</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.02415837696833</v>
+        <v>2.350541833068291</v>
       </c>
       <c r="L8">
-        <v>0.05735222206027757</v>
+        <v>0.1217676075421643</v>
       </c>
       <c r="M8">
-        <v>0.8135220402716214</v>
+        <v>0.6082365330170418</v>
       </c>
       <c r="N8">
-        <v>0.9948140069220628</v>
+        <v>2.068577738451925</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04855708005472792</v>
+        <v>0.07801815990123373</v>
       </c>
       <c r="D9">
-        <v>0.04226423109551014</v>
+        <v>0.1278357976846127</v>
       </c>
       <c r="E9">
-        <v>0.04251350875858506</v>
+        <v>0.07739086237637771</v>
       </c>
       <c r="F9">
-        <v>2.171496811905399</v>
+        <v>2.426081339935834</v>
       </c>
       <c r="G9">
-        <v>0.0007950551125013305</v>
+        <v>0.002549763495880404</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.784688898151416</v>
+        <v>2.219743040017391</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.451635114486692</v>
+        <v>2.695089803630196</v>
       </c>
       <c r="L9">
-        <v>0.0632567080328954</v>
+        <v>0.1214551154872332</v>
       </c>
       <c r="M9">
-        <v>1.089183979820312</v>
+        <v>0.6712156724132257</v>
       </c>
       <c r="N9">
-        <v>0.8481741276762591</v>
+        <v>2.012609857049913</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05555151447939721</v>
+        <v>0.07928022775045207</v>
       </c>
       <c r="D10">
-        <v>0.03733712958970159</v>
+        <v>0.1257436242040324</v>
       </c>
       <c r="E10">
-        <v>0.04693004717713123</v>
+        <v>0.07778978510310175</v>
       </c>
       <c r="F10">
-        <v>2.488282243672174</v>
+        <v>2.472560946395703</v>
       </c>
       <c r="G10">
-        <v>0.0007807601607231935</v>
+        <v>0.00254160747538694</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.025082207904276</v>
+        <v>2.250736873597532</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.544981332453631</v>
+        <v>2.954743712645154</v>
       </c>
       <c r="L10">
-        <v>0.0682792252976796</v>
+        <v>0.1214737303910169</v>
       </c>
       <c r="M10">
-        <v>1.301003269319679</v>
+        <v>0.7191818108004355</v>
       </c>
       <c r="N10">
-        <v>0.7503734037557486</v>
+        <v>1.975033076299418</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05880665651150707</v>
+        <v>0.07988015856168573</v>
       </c>
       <c r="D11">
-        <v>0.0352157894688947</v>
+        <v>0.1248330100378396</v>
       </c>
       <c r="E11">
-        <v>0.04903797733596704</v>
+        <v>0.07800281982671819</v>
       </c>
       <c r="F11">
-        <v>2.641065571838539</v>
+        <v>2.495294183631131</v>
       </c>
       <c r="G11">
-        <v>0.0007743349042992671</v>
+        <v>0.00253807033475818</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.141478324447874</v>
+        <v>2.266217430370176</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.055600941135765</v>
+        <v>3.074313474267058</v>
       </c>
       <c r="L11">
-        <v>0.07074678426756265</v>
+        <v>0.1215362982367481</v>
       </c>
       <c r="M11">
-        <v>1.400083806091359</v>
+        <v>0.7413768248265882</v>
       </c>
       <c r="N11">
-        <v>0.7083678414975338</v>
+        <v>1.95871086219552</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06005135484716817</v>
+        <v>0.08011103145635445</v>
       </c>
       <c r="D12">
-        <v>0.03443159344286428</v>
+        <v>0.124494109094158</v>
       </c>
       <c r="E12">
-        <v>0.0498522041758811</v>
+        <v>0.07808802981015006</v>
       </c>
       <c r="F12">
-        <v>2.70035319158572</v>
+        <v>2.504132896327064</v>
       </c>
       <c r="G12">
-        <v>0.0007719100683584385</v>
+        <v>0.002536755646681408</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.186714148069925</v>
+        <v>2.272279421085784</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.251205515972231</v>
+        <v>3.119802239953231</v>
       </c>
       <c r="L12">
-        <v>0.07171073932862981</v>
+        <v>0.1215677857119672</v>
       </c>
       <c r="M12">
-        <v>1.438061839214569</v>
+        <v>0.7498357870869086</v>
       </c>
       <c r="N12">
-        <v>0.6928509910215297</v>
+        <v>1.952641352760029</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05978272501592841</v>
+        <v>0.08006114494203587</v>
       </c>
       <c r="D13">
-        <v>0.03459960139083407</v>
+        <v>0.1245668335421719</v>
       </c>
       <c r="E13">
-        <v>0.04967610333513761</v>
+        <v>0.07806947647283735</v>
       </c>
       <c r="F13">
-        <v>2.687517658373793</v>
+        <v>2.502219061078762</v>
       </c>
       <c r="G13">
-        <v>0.000772431982330261</v>
+        <v>0.002537037689822558</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.176917701518519</v>
+        <v>2.27096495551838</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.208972888787287</v>
+        <v>3.109996042997011</v>
       </c>
       <c r="L13">
-        <v>0.07150176391831309</v>
+        <v>0.1215606574202113</v>
       </c>
       <c r="M13">
-        <v>1.42986104349751</v>
+        <v>0.748011583585992</v>
       </c>
       <c r="N13">
-        <v>0.6961749230990435</v>
+        <v>1.953943571091937</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05890880786827779</v>
+        <v>0.07989907872695312</v>
       </c>
       <c r="D14">
-        <v>0.03515087850508714</v>
+        <v>0.1248050095415589</v>
       </c>
       <c r="E14">
-        <v>0.04910463255462361</v>
+        <v>0.07800973914860165</v>
       </c>
       <c r="F14">
-        <v>2.645913359313909</v>
+        <v>2.496016728633919</v>
       </c>
       <c r="G14">
-        <v>0.0007741352637653367</v>
+        <v>0.002537961679499718</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.145175760920011</v>
+        <v>2.266712141910361</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.071646372962221</v>
+        <v>3.078051639006731</v>
       </c>
       <c r="L14">
-        <v>0.07082547714358611</v>
+        <v>0.1215387324321711</v>
       </c>
       <c r="M14">
-        <v>1.403198680478567</v>
+        <v>0.742071661065097</v>
       </c>
       <c r="N14">
-        <v>0.7070832478235829</v>
+        <v>1.95820928590549</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0583751250644724</v>
+        <v>0.07980028874712275</v>
       </c>
       <c r="D15">
-        <v>0.03549110043510062</v>
+        <v>0.124951671789324</v>
       </c>
       <c r="E15">
-        <v>0.04875673076740838</v>
+        <v>0.07797373933653873</v>
       </c>
       <c r="F15">
-        <v>2.620621886848056</v>
+        <v>2.492247637545006</v>
       </c>
       <c r="G15">
-        <v>0.0007751795575440971</v>
+        <v>0.002538530868834101</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.125888551003172</v>
+        <v>2.264133232051108</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.987832970846398</v>
+        <v>3.058512201074109</v>
       </c>
       <c r="L15">
-        <v>0.070415183397607</v>
+        <v>0.1215263182548796</v>
       </c>
       <c r="M15">
-        <v>1.386929043011577</v>
+        <v>0.7384403526319261</v>
       </c>
       <c r="N15">
-        <v>0.713816707759527</v>
+        <v>1.960836673509377</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05534038301927069</v>
+        <v>0.07924153856148308</v>
       </c>
       <c r="D16">
-        <v>0.03747833066987738</v>
+        <v>0.1258039638106201</v>
       </c>
       <c r="E16">
-        <v>0.04679442541537426</v>
+        <v>0.07777649787077578</v>
       </c>
       <c r="F16">
-        <v>2.478487286223924</v>
+        <v>2.471107393048939</v>
       </c>
       <c r="G16">
-        <v>0.0007811813890145694</v>
+        <v>0.002541842106630148</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.017629224099593</v>
+        <v>2.249753081188842</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.511905719210858</v>
+        <v>2.946958891464647</v>
       </c>
       <c r="L16">
-        <v>0.06812191192781114</v>
+        <v>0.1214707313232068</v>
       </c>
       <c r="M16">
-        <v>1.294588431311453</v>
+        <v>0.7177388828698383</v>
       </c>
       <c r="N16">
-        <v>0.7531712376671997</v>
+        <v>1.976115332651222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05349845987495172</v>
+        <v>0.07890536006365068</v>
       </c>
       <c r="D17">
-        <v>0.03872939681752463</v>
+        <v>0.1263373612049818</v>
       </c>
       <c r="E17">
-        <v>0.04561712969407061</v>
+        <v>0.07766358026524678</v>
       </c>
       <c r="F17">
-        <v>2.393638169041211</v>
+        <v>2.458546739582829</v>
       </c>
       <c r="G17">
-        <v>0.0007848812476394861</v>
+        <v>0.002543917674094889</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.953117278207202</v>
+        <v>2.241285964738708</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.223560887569704</v>
+        <v>2.878897474742814</v>
       </c>
       <c r="L17">
-        <v>0.06676407235892157</v>
+        <v>0.1214504972407653</v>
       </c>
       <c r="M17">
-        <v>1.238682733710164</v>
+        <v>0.7051354320100671</v>
       </c>
       <c r="N17">
-        <v>0.7779720676363162</v>
+        <v>1.985686212794548</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05244583699379746</v>
+        <v>0.07871442955213581</v>
       </c>
       <c r="D18">
-        <v>0.03946014696808753</v>
+        <v>0.1266480273230268</v>
       </c>
       <c r="E18">
-        <v>0.04494916275042726</v>
+        <v>0.07760160388313153</v>
       </c>
       <c r="F18">
-        <v>2.345639475533929</v>
+        <v>2.451471693412884</v>
       </c>
       <c r="G18">
-        <v>0.0007870168041587236</v>
+        <v>0.002545127784146519</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.916664505696545</v>
+        <v>2.236545844943549</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.058937101079437</v>
+        <v>2.839886914064778</v>
       </c>
       <c r="L18">
-        <v>0.06600006612007192</v>
+        <v>0.1214439503419413</v>
       </c>
       <c r="M18">
-        <v>1.206779065771741</v>
+        <v>0.6979215382557697</v>
       </c>
       <c r="N18">
-        <v>0.7924685155405946</v>
+        <v>1.991263737230355</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.052090562652225</v>
+        <v>0.07865020179294646</v>
       </c>
       <c r="D19">
-        <v>0.03970943330592647</v>
+        <v>0.1267538777682464</v>
       </c>
       <c r="E19">
-        <v>0.04472452679277517</v>
+        <v>0.0775811300044893</v>
       </c>
       <c r="F19">
-        <v>2.329520847540394</v>
+        <v>2.449101835237641</v>
       </c>
       <c r="G19">
-        <v>0.0007877412366121458</v>
+        <v>0.002545540310393034</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.904430175608965</v>
+        <v>2.234963202865714</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.003399024017028</v>
+        <v>2.826702018595711</v>
       </c>
       <c r="L19">
-        <v>0.06574421163257327</v>
+        <v>0.1214426076489978</v>
       </c>
       <c r="M19">
-        <v>1.19601838315954</v>
+        <v>0.6954850886856434</v>
       </c>
       <c r="N19">
-        <v>0.7974156328621902</v>
+        <v>1.993164649603642</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.053693821429178</v>
+        <v>0.07894089543489713</v>
       </c>
       <c r="D20">
-        <v>0.03859505019120313</v>
+        <v>0.1262801795002098</v>
       </c>
       <c r="E20">
-        <v>0.04574149224126778</v>
+        <v>0.07767529307023402</v>
       </c>
       <c r="F20">
-        <v>2.402586004439343</v>
+        <v>2.45986835762217</v>
       </c>
       <c r="G20">
-        <v>0.0007844866353313948</v>
+        <v>0.00254369504065184</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.959916120992418</v>
+        <v>2.242173846575568</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.254126640589277</v>
+        <v>2.88612858388143</v>
       </c>
       <c r="L20">
-        <v>0.0669068362989691</v>
+        <v>0.1214521241665274</v>
       </c>
       <c r="M20">
-        <v>1.244607472583311</v>
+        <v>0.7064734378173512</v>
       </c>
       <c r="N20">
-        <v>0.7753077789155292</v>
+        <v>1.984659858844115</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05916515864526417</v>
+        <v>0.07994658145219091</v>
       </c>
       <c r="D21">
-        <v>0.03498842014260539</v>
+        <v>0.1247348904469856</v>
       </c>
       <c r="E21">
-        <v>0.04927203776324163</v>
+        <v>0.07802716228017914</v>
       </c>
       <c r="F21">
-        <v>2.658093098112801</v>
+        <v>2.497832245744803</v>
       </c>
       <c r="G21">
-        <v>0.000773634769238271</v>
+        <v>0.002537689610670246</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.154466411742163</v>
+        <v>2.267955863023616</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.111918674021865</v>
+        <v>3.087428765258267</v>
       </c>
       <c r="L21">
-        <v>0.07102328906319144</v>
+        <v>0.1215449606734893</v>
       </c>
       <c r="M21">
-        <v>1.411017045497999</v>
+        <v>0.7438148873289094</v>
       </c>
       <c r="N21">
-        <v>0.7038683497917759</v>
+        <v>1.956953316613141</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06281205402828505</v>
+        <v>0.0806253672298709</v>
       </c>
       <c r="D22">
-        <v>0.03274375699789012</v>
+        <v>0.1237595201541009</v>
       </c>
       <c r="E22">
-        <v>0.05167371239961938</v>
+        <v>0.07828358224842802</v>
       </c>
       <c r="F22">
-        <v>2.833532000632744</v>
+        <v>2.523985955662084</v>
       </c>
       <c r="G22">
-        <v>0.0007665890250988406</v>
+        <v>0.002533908914350454</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.288455593555113</v>
+        <v>2.28597129587159</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.685806452377506</v>
+        <v>3.220216548658982</v>
       </c>
       <c r="L22">
-        <v>0.0738876659226122</v>
+        <v>0.121651073659983</v>
       </c>
       <c r="M22">
-        <v>1.522484849042826</v>
+        <v>0.7685356891852848</v>
       </c>
       <c r="N22">
-        <v>0.6594687256801492</v>
+        <v>1.939494764129428</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06085858702659408</v>
+        <v>0.08026112441821454</v>
       </c>
       <c r="D23">
-        <v>0.03393078899243918</v>
+        <v>0.1242769257786343</v>
       </c>
       <c r="E23">
-        <v>0.05038261617803386</v>
+        <v>0.07814430564933161</v>
       </c>
       <c r="F23">
-        <v>2.739056222891207</v>
+        <v>2.509903899750356</v>
       </c>
       <c r="G23">
-        <v>0.0007703462639908794</v>
+        <v>0.002535913594252543</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.216263436011261</v>
+        <v>2.27624908187272</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7.378173352889519</v>
+        <v>3.149232474962957</v>
       </c>
       <c r="L23">
-        <v>0.07234177858789081</v>
+        <v>0.1215902764320163</v>
       </c>
       <c r="M23">
-        <v>1.462719982584787</v>
+        <v>0.7553127253750631</v>
       </c>
       <c r="N23">
-        <v>0.6829441522102613</v>
+        <v>1.948753180255824</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05360547888578537</v>
+        <v>0.07892482259399713</v>
       </c>
       <c r="D24">
-        <v>0.03865575263093923</v>
+        <v>0.1263060188634491</v>
       </c>
       <c r="E24">
-        <v>0.04568524041895294</v>
+        <v>0.07766998854910767</v>
       </c>
       <c r="F24">
-        <v>2.398538265307934</v>
+        <v>2.45927039871755</v>
       </c>
       <c r="G24">
-        <v>0.0007846650129393248</v>
+        <v>0.002543795640807443</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.956840394000039</v>
+        <v>2.241772037412218</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.240304308215798</v>
+        <v>2.882859029348197</v>
       </c>
       <c r="L24">
-        <v>0.06684224115187476</v>
+        <v>0.1214513727931035</v>
       </c>
       <c r="M24">
-        <v>1.241928164055608</v>
+        <v>0.7058684257453649</v>
       </c>
       <c r="N24">
-        <v>0.7765115645554026</v>
+        <v>1.985123639581538</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04603733955579514</v>
+        <v>0.07757640127083221</v>
       </c>
       <c r="D25">
-        <v>0.04417436902206262</v>
+        <v>0.1286426337855033</v>
       </c>
       <c r="E25">
-        <v>0.04096396547092773</v>
+        <v>0.0772719419448471</v>
       </c>
       <c r="F25">
-        <v>2.0614295775176</v>
+        <v>2.410363538931477</v>
       </c>
       <c r="G25">
-        <v>0.0008004054997269666</v>
+        <v>0.002552921421625913</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.701527332326762</v>
+        <v>2.209545922327592</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.058726103389517</v>
+        <v>2.600746453748968</v>
       </c>
       <c r="L25">
-        <v>0.06154967389943877</v>
+        <v>0.121496129822912</v>
       </c>
       <c r="M25">
-        <v>1.013194107826259</v>
+        <v>0.6538822468937653</v>
       </c>
       <c r="N25">
-        <v>0.8862001353816815</v>
+        <v>2.027129558072446</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07666397707932049</v>
+        <v>0.04063639782743422</v>
       </c>
       <c r="D2">
-        <v>0.1304900858569109</v>
+        <v>0.04854627231890873</v>
       </c>
       <c r="E2">
-        <v>0.07707643088466121</v>
+        <v>0.03772793336077918</v>
       </c>
       <c r="F2">
-        <v>2.379194894897779</v>
+        <v>1.833381800530631</v>
       </c>
       <c r="G2">
-        <v>0.00256018347049029</v>
+        <v>0.0008123421889867257</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.190033717674908</v>
+        <v>1.530006564495963</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.397405336578231</v>
+        <v>4.217370225496779</v>
       </c>
       <c r="L2">
-        <v>0.1216957980070674</v>
+        <v>0.05809980639047652</v>
       </c>
       <c r="M2">
-        <v>0.6167442470982891</v>
+        <v>0.8507598989214173</v>
       </c>
       <c r="N2">
-        <v>2.060436144321823</v>
+        <v>0.9735085022359939</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07609603802299603</v>
+        <v>0.0370626343861673</v>
       </c>
       <c r="D3">
-        <v>0.1318212558796983</v>
+        <v>0.05167986291725857</v>
       </c>
       <c r="E3">
-        <v>0.07700476154855274</v>
+        <v>0.03566045237328375</v>
       </c>
       <c r="F3">
-        <v>2.361058283553419</v>
+        <v>1.688958179410335</v>
       </c>
       <c r="G3">
-        <v>0.002565446804889912</v>
+        <v>0.0008206879521004381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.179414616119942</v>
+        <v>1.422085959539643</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.262280513432131</v>
+        <v>3.660500053856879</v>
       </c>
       <c r="L3">
-        <v>0.1219348201225152</v>
+        <v>0.05599695586334263</v>
       </c>
       <c r="M3">
-        <v>0.5922771613383091</v>
+        <v>0.7435103002022458</v>
       </c>
       <c r="N3">
-        <v>2.084487371412415</v>
+        <v>1.036346446764565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07577229705513844</v>
+        <v>0.03490512365281262</v>
       </c>
       <c r="D4">
-        <v>0.1326775970894847</v>
+        <v>0.05368206286571908</v>
       </c>
       <c r="E4">
-        <v>0.0769907625790669</v>
+        <v>0.03444594277784141</v>
       </c>
       <c r="F4">
-        <v>2.351385231975655</v>
+        <v>1.604568496875899</v>
       </c>
       <c r="G4">
-        <v>0.002568848142911478</v>
+        <v>0.0008259501839133371</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.174171333713943</v>
+        <v>1.359363504318466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.180622279277827</v>
+        <v>3.32384549077733</v>
       </c>
       <c r="L4">
-        <v>0.1221326516306682</v>
+        <v>0.05480913253538944</v>
       </c>
       <c r="M4">
-        <v>0.5775979327944469</v>
+        <v>0.6787975650676188</v>
       </c>
       <c r="N4">
-        <v>2.099982966035345</v>
+        <v>1.076619085330041</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07564667176072248</v>
+        <v>0.03403439331810887</v>
       </c>
       <c r="D5">
-        <v>0.1330363611740228</v>
+        <v>0.05451682430333182</v>
       </c>
       <c r="E5">
-        <v>0.07699260667528307</v>
+        <v>0.03396388719455246</v>
       </c>
       <c r="F5">
-        <v>2.347809934170527</v>
+        <v>1.571161529064952</v>
       </c>
       <c r="G5">
-        <v>0.002570277016704092</v>
+        <v>0.0008281308201054928</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.172354746305743</v>
+        <v>1.334618133198958</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.147673813637368</v>
+        <v>3.187805327451258</v>
       </c>
       <c r="L5">
-        <v>0.1222261031390879</v>
+        <v>0.05434935878815494</v>
       </c>
       <c r="M5">
-        <v>0.5717022369385987</v>
+        <v>0.6526783394291371</v>
       </c>
       <c r="N5">
-        <v>2.106480344901101</v>
+        <v>1.093439092247369</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07562619302445484</v>
+        <v>0.03389029940843358</v>
       </c>
       <c r="D6">
-        <v>0.1330965252274838</v>
+        <v>0.0546565522997895</v>
       </c>
       <c r="E6">
-        <v>0.07699336892258302</v>
+        <v>0.03388459311908854</v>
       </c>
       <c r="F6">
-        <v>2.347238359396755</v>
+        <v>1.565671023612992</v>
       </c>
       <c r="G6">
-        <v>0.002570516869438923</v>
+        <v>0.0008284951449168704</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.172072407435365</v>
+        <v>1.330556276131929</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.1422225173161</v>
+        <v>3.165280538148409</v>
       </c>
       <c r="L6">
-        <v>0.1222423955624805</v>
+        <v>0.05427443235318208</v>
       </c>
       <c r="M6">
-        <v>0.5707284620650412</v>
+        <v>0.6483555068814582</v>
       </c>
       <c r="N6">
-        <v>2.107570262348315</v>
+        <v>1.096256266974258</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0757705772827677</v>
+        <v>0.0348933473549522</v>
       </c>
       <c r="D7">
-        <v>0.132682395847139</v>
+        <v>0.05369324543409437</v>
       </c>
       <c r="E7">
-        <v>0.07699075687944479</v>
+        <v>0.03443939070582758</v>
       </c>
       <c r="F7">
-        <v>2.351335531862077</v>
+        <v>1.604114101232796</v>
       </c>
       <c r="G7">
-        <v>0.00256886723981083</v>
+        <v>0.0008259794439724787</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.174145539862437</v>
+        <v>1.359026577412848</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.18017659857486</v>
+        <v>3.32200637269915</v>
       </c>
       <c r="L7">
-        <v>0.1221338599989998</v>
+        <v>0.05480283574327061</v>
       </c>
       <c r="M7">
-        <v>0.57751807259217</v>
+        <v>0.6784443365160371</v>
       </c>
       <c r="N7">
-        <v>2.100069852197358</v>
+        <v>1.076844292090918</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07646298035036381</v>
+        <v>0.03939603610490394</v>
       </c>
       <c r="D8">
-        <v>0.1309409745263217</v>
+        <v>0.04960999887754092</v>
       </c>
       <c r="E8">
-        <v>0.07704549330775912</v>
+        <v>0.03700307048604046</v>
       </c>
       <c r="F8">
-        <v>2.372636962133981</v>
+        <v>1.782634751766921</v>
       </c>
       <c r="G8">
-        <v>0.00256196314987807</v>
+        <v>0.0008151921636483534</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.186106623958437</v>
+        <v>1.492012827188859</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.350541833068291</v>
+        <v>4.024158376968273</v>
       </c>
       <c r="L8">
-        <v>0.1217676075421643</v>
+        <v>0.05735222206032375</v>
       </c>
       <c r="M8">
-        <v>0.6082365330170418</v>
+        <v>0.8135220402716499</v>
       </c>
       <c r="N8">
-        <v>2.068577738451925</v>
+        <v>0.9948140069220592</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07801815990123373</v>
+        <v>0.04855708005495529</v>
       </c>
       <c r="D9">
-        <v>0.1278357976846127</v>
+        <v>0.04226423109563449</v>
       </c>
       <c r="E9">
-        <v>0.07739086237637771</v>
+        <v>0.04251350875858861</v>
       </c>
       <c r="F9">
-        <v>2.426081339935834</v>
+        <v>2.171496811905385</v>
       </c>
       <c r="G9">
-        <v>0.002549763495880404</v>
+        <v>0.0007950551125507027</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.219743040017391</v>
+        <v>1.784688898151416</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.695089803630196</v>
+        <v>5.451635114486749</v>
       </c>
       <c r="L9">
-        <v>0.1214551154872332</v>
+        <v>0.0632567080330233</v>
       </c>
       <c r="M9">
-        <v>0.6712156724132257</v>
+        <v>1.089183979820319</v>
       </c>
       <c r="N9">
-        <v>2.012609857049913</v>
+        <v>0.8481741276762662</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07928022775045207</v>
+        <v>0.05555151447939011</v>
       </c>
       <c r="D10">
-        <v>0.1257436242040324</v>
+        <v>0.0373371295897158</v>
       </c>
       <c r="E10">
-        <v>0.07778978510310175</v>
+        <v>0.04693004717713478</v>
       </c>
       <c r="F10">
-        <v>2.472560946395703</v>
+        <v>2.488282243672188</v>
       </c>
       <c r="G10">
-        <v>0.00254160747538694</v>
+        <v>0.0007807601607237646</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.250736873597532</v>
+        <v>2.025082207904305</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.954743712645154</v>
+        <v>6.544981332453744</v>
       </c>
       <c r="L10">
-        <v>0.1214737303910169</v>
+        <v>0.06827922529776487</v>
       </c>
       <c r="M10">
-        <v>0.7191818108004355</v>
+        <v>1.301003269319665</v>
       </c>
       <c r="N10">
-        <v>1.975033076299418</v>
+        <v>0.7503734037557734</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07988015856168573</v>
+        <v>0.05880665651150707</v>
       </c>
       <c r="D11">
-        <v>0.1248330100378396</v>
+        <v>0.03521578946865844</v>
       </c>
       <c r="E11">
-        <v>0.07800281982671819</v>
+        <v>0.04903797733593507</v>
       </c>
       <c r="F11">
-        <v>2.495294183631131</v>
+        <v>2.641065571838539</v>
       </c>
       <c r="G11">
-        <v>0.00253807033475818</v>
+        <v>0.0007743349042404719</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.266217430370176</v>
+        <v>2.141478324447874</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.074313474267058</v>
+        <v>7.055600941135879</v>
       </c>
       <c r="L11">
-        <v>0.1215362982367481</v>
+        <v>0.07074678426755554</v>
       </c>
       <c r="M11">
-        <v>0.7413768248265882</v>
+        <v>1.400083806091359</v>
       </c>
       <c r="N11">
-        <v>1.95871086219552</v>
+        <v>0.7083678414975907</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08011103145635445</v>
+        <v>0.06005135484695501</v>
       </c>
       <c r="D12">
-        <v>0.124494109094158</v>
+        <v>0.03443159344287494</v>
       </c>
       <c r="E12">
-        <v>0.07808802981015006</v>
+        <v>0.04985220417588465</v>
       </c>
       <c r="F12">
-        <v>2.504132896327064</v>
+        <v>2.70035319158572</v>
       </c>
       <c r="G12">
-        <v>0.002536755646681408</v>
+        <v>0.0007719100683023929</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.272279421085784</v>
+        <v>2.186714148069925</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.119802239953231</v>
+        <v>7.251205515972117</v>
       </c>
       <c r="L12">
-        <v>0.1215677857119672</v>
+        <v>0.07171073932857297</v>
       </c>
       <c r="M12">
-        <v>0.7498357870869086</v>
+        <v>1.438061839214569</v>
       </c>
       <c r="N12">
-        <v>1.952641352760029</v>
+        <v>0.6928509910214871</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08006114494203587</v>
+        <v>0.05978272501615578</v>
       </c>
       <c r="D13">
-        <v>0.1245668335421719</v>
+        <v>0.03459960139082696</v>
       </c>
       <c r="E13">
-        <v>0.07806947647283735</v>
+        <v>0.04967610333513051</v>
       </c>
       <c r="F13">
-        <v>2.502219061078762</v>
+        <v>2.687517658373821</v>
       </c>
       <c r="G13">
-        <v>0.002537037689822558</v>
+        <v>0.0007724319823267608</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.27096495551838</v>
+        <v>2.176917701518491</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.109996042997011</v>
+        <v>7.208972888787287</v>
       </c>
       <c r="L13">
-        <v>0.1215606574202113</v>
+        <v>0.07150176391829888</v>
       </c>
       <c r="M13">
-        <v>0.748011583585992</v>
+        <v>1.429861043497539</v>
       </c>
       <c r="N13">
-        <v>1.953943571091937</v>
+        <v>0.6961749230990222</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07989907872695312</v>
+        <v>0.05890880786827069</v>
       </c>
       <c r="D14">
-        <v>0.1248050095415589</v>
+        <v>0.03515087850542464</v>
       </c>
       <c r="E14">
-        <v>0.07800973914860165</v>
+        <v>0.04910463255461295</v>
       </c>
       <c r="F14">
-        <v>2.496016728633919</v>
+        <v>2.645913359313937</v>
       </c>
       <c r="G14">
-        <v>0.002537961679499718</v>
+        <v>0.0007741352637062805</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.266712141910361</v>
+        <v>2.14517576092004</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.078051639006731</v>
+        <v>7.071646372962277</v>
       </c>
       <c r="L14">
-        <v>0.1215387324321711</v>
+        <v>0.0708254771435719</v>
       </c>
       <c r="M14">
-        <v>0.742071661065097</v>
+        <v>1.403198680478567</v>
       </c>
       <c r="N14">
-        <v>1.95820928590549</v>
+        <v>0.7070832478236184</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07980028874712275</v>
+        <v>0.05837512506494136</v>
       </c>
       <c r="D15">
-        <v>0.124951671789324</v>
+        <v>0.03549110043509351</v>
       </c>
       <c r="E15">
-        <v>0.07797373933653873</v>
+        <v>0.04875673076740483</v>
       </c>
       <c r="F15">
-        <v>2.492247637545006</v>
+        <v>2.620621886848056</v>
       </c>
       <c r="G15">
-        <v>0.002538530868834101</v>
+        <v>0.000775179557599977</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.264133232051108</v>
+        <v>2.1258885510032</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.058512201074109</v>
+        <v>6.987832970846341</v>
       </c>
       <c r="L15">
-        <v>0.1215263182548796</v>
+        <v>0.07041518339765673</v>
       </c>
       <c r="M15">
-        <v>0.7384403526319261</v>
+        <v>1.386929043011563</v>
       </c>
       <c r="N15">
-        <v>1.960836673509377</v>
+        <v>0.7138167077595696</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07924153856148308</v>
+        <v>0.05534038301970412</v>
       </c>
       <c r="D16">
-        <v>0.1258039638106201</v>
+        <v>0.03747833066997508</v>
       </c>
       <c r="E16">
-        <v>0.07777649787077578</v>
+        <v>0.04679442541539558</v>
       </c>
       <c r="F16">
-        <v>2.471107393048939</v>
+        <v>2.478487286223924</v>
       </c>
       <c r="G16">
-        <v>0.002541842106630148</v>
+        <v>0.0007811813890680822</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.249753081188842</v>
+        <v>2.017629224099622</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.946958891464647</v>
+        <v>6.511905719210631</v>
       </c>
       <c r="L16">
-        <v>0.1214707313232068</v>
+        <v>0.06812191192776851</v>
       </c>
       <c r="M16">
-        <v>0.7177388828698383</v>
+        <v>1.294588431311439</v>
       </c>
       <c r="N16">
-        <v>1.976115332651222</v>
+        <v>0.7531712376672388</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07890536006365068</v>
+        <v>0.05349845987496593</v>
       </c>
       <c r="D17">
-        <v>0.1263373612049818</v>
+        <v>0.03872939681753707</v>
       </c>
       <c r="E17">
-        <v>0.07766358026524678</v>
+        <v>0.04561712969407594</v>
       </c>
       <c r="F17">
-        <v>2.458546739582829</v>
+        <v>2.393638169041211</v>
       </c>
       <c r="G17">
-        <v>0.002543917674094889</v>
+        <v>0.0007848812476410694</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.241285964738708</v>
+        <v>1.95311727820723</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.878897474742814</v>
+        <v>6.223560887569761</v>
       </c>
       <c r="L17">
-        <v>0.1214504972407653</v>
+        <v>0.06676407235893578</v>
       </c>
       <c r="M17">
-        <v>0.7051354320100671</v>
+        <v>1.238682733710164</v>
       </c>
       <c r="N17">
-        <v>1.985686212794548</v>
+        <v>0.77797206763627</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07871442955213581</v>
+        <v>0.05244583699401772</v>
       </c>
       <c r="D18">
-        <v>0.1266480273230268</v>
+        <v>0.03946014696796141</v>
       </c>
       <c r="E18">
-        <v>0.07760160388313153</v>
+        <v>0.04494916275038641</v>
       </c>
       <c r="F18">
-        <v>2.451471693412884</v>
+        <v>2.345639475533915</v>
       </c>
       <c r="G18">
-        <v>0.002545127784146519</v>
+        <v>0.0007870168042146984</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.236545844943549</v>
+        <v>1.916664505696545</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.839886914064778</v>
+        <v>6.058937101079437</v>
       </c>
       <c r="L18">
-        <v>0.1214439503419413</v>
+        <v>0.06600006612005771</v>
       </c>
       <c r="M18">
-        <v>0.6979215382557697</v>
+        <v>1.206779065771741</v>
       </c>
       <c r="N18">
-        <v>1.991263737230355</v>
+        <v>0.7924685155405768</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07865020179294646</v>
+        <v>0.05209056265266554</v>
       </c>
       <c r="D19">
-        <v>0.1267538777682464</v>
+        <v>0.03970943330581278</v>
       </c>
       <c r="E19">
-        <v>0.0775811300044893</v>
+        <v>0.04472452679274141</v>
       </c>
       <c r="F19">
-        <v>2.449101835237641</v>
+        <v>2.329520847540394</v>
       </c>
       <c r="G19">
-        <v>0.002545540310393034</v>
+        <v>0.0007877412364985329</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.234963202865714</v>
+        <v>1.904430175608965</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.826702018595711</v>
+        <v>6.003399024017028</v>
       </c>
       <c r="L19">
-        <v>0.1214426076489978</v>
+        <v>0.06574421163257327</v>
       </c>
       <c r="M19">
-        <v>0.6954850886856434</v>
+        <v>1.196018383159526</v>
       </c>
       <c r="N19">
-        <v>1.993164649603642</v>
+        <v>0.797415632862247</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07894089543489713</v>
+        <v>0.05369382142940538</v>
       </c>
       <c r="D20">
-        <v>0.1262801795002098</v>
+        <v>0.03859505019141984</v>
       </c>
       <c r="E20">
-        <v>0.07767529307023402</v>
+        <v>0.04574149224129975</v>
       </c>
       <c r="F20">
-        <v>2.45986835762217</v>
+        <v>2.402586004439343</v>
       </c>
       <c r="G20">
-        <v>0.00254369504065184</v>
+        <v>0.0007844866352731016</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.242173846575568</v>
+        <v>1.959916120992432</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.88612858388143</v>
+        <v>6.254126640589448</v>
       </c>
       <c r="L20">
-        <v>0.1214521241665274</v>
+        <v>0.06690683629883409</v>
       </c>
       <c r="M20">
-        <v>0.7064734378173512</v>
+        <v>1.244607472583311</v>
       </c>
       <c r="N20">
-        <v>1.984659858844115</v>
+        <v>0.7753077789155043</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07994658145219091</v>
+        <v>0.05916515864527838</v>
       </c>
       <c r="D21">
-        <v>0.1247348904469856</v>
+        <v>0.03498842014250592</v>
       </c>
       <c r="E21">
-        <v>0.07802716228017914</v>
+        <v>0.04927203776327005</v>
       </c>
       <c r="F21">
-        <v>2.497832245744803</v>
+        <v>2.658093098112829</v>
       </c>
       <c r="G21">
-        <v>0.002537689610670246</v>
+        <v>0.0007736347691248887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.267955863023616</v>
+        <v>2.154466411742177</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.087428765258267</v>
+        <v>7.111918674021865</v>
       </c>
       <c r="L21">
-        <v>0.1215449606734893</v>
+        <v>0.07102328906323407</v>
       </c>
       <c r="M21">
-        <v>0.7438148873289094</v>
+        <v>1.411017045497999</v>
       </c>
       <c r="N21">
-        <v>1.956953316613141</v>
+        <v>0.7038683497917972</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0806253672298709</v>
+        <v>0.06281205402876111</v>
       </c>
       <c r="D22">
-        <v>0.1237595201541009</v>
+        <v>0.03274375699789012</v>
       </c>
       <c r="E22">
-        <v>0.07828358224842802</v>
+        <v>0.0516737123995874</v>
       </c>
       <c r="F22">
-        <v>2.523985955662084</v>
+        <v>2.833532000632744</v>
       </c>
       <c r="G22">
-        <v>0.002533908914350454</v>
+        <v>0.0007665890250415907</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.28597129587159</v>
+        <v>2.288455593555128</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.220216548658982</v>
+        <v>7.685806452377506</v>
       </c>
       <c r="L22">
-        <v>0.121651073659983</v>
+        <v>0.07388766592260509</v>
       </c>
       <c r="M22">
-        <v>0.7685356891852848</v>
+        <v>1.52248484904284</v>
       </c>
       <c r="N22">
-        <v>1.939494764129428</v>
+        <v>0.6594687256802061</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08026112441821454</v>
+        <v>0.0608585870263596</v>
       </c>
       <c r="D23">
-        <v>0.1242769257786343</v>
+        <v>0.03393078899255286</v>
       </c>
       <c r="E23">
-        <v>0.07814430564933161</v>
+        <v>0.05038261617803741</v>
       </c>
       <c r="F23">
-        <v>2.509903899750356</v>
+        <v>2.739056222891236</v>
       </c>
       <c r="G23">
-        <v>0.002535913594252543</v>
+        <v>0.0007703462640502046</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.27624908187272</v>
+        <v>2.216263436011275</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.149232474962957</v>
+        <v>7.378173352889576</v>
       </c>
       <c r="L23">
-        <v>0.1215902764320163</v>
+        <v>0.0723417785878695</v>
       </c>
       <c r="M23">
-        <v>0.7553127253750631</v>
+        <v>1.462719982584815</v>
       </c>
       <c r="N23">
-        <v>1.948753180255824</v>
+        <v>0.682944152210311</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07892482259399713</v>
+        <v>0.05360547888554379</v>
       </c>
       <c r="D24">
-        <v>0.1263060188634491</v>
+        <v>0.03865575263081844</v>
       </c>
       <c r="E24">
-        <v>0.07766998854910767</v>
+        <v>0.04568524041900623</v>
       </c>
       <c r="F24">
-        <v>2.45927039871755</v>
+        <v>2.398538265307963</v>
       </c>
       <c r="G24">
-        <v>0.002543795640807443</v>
+        <v>0.0007846650130512121</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.241772037412218</v>
+        <v>1.956840394000054</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.882859029348197</v>
+        <v>6.240304308215798</v>
       </c>
       <c r="L24">
-        <v>0.1214513727931035</v>
+        <v>0.06684224115171844</v>
       </c>
       <c r="M24">
-        <v>0.7058684257453649</v>
+        <v>1.241928164055594</v>
       </c>
       <c r="N24">
-        <v>1.985123639581538</v>
+        <v>0.7765115645553777</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07757640127083221</v>
+        <v>0.04603733955579514</v>
       </c>
       <c r="D25">
-        <v>0.1286426337855033</v>
+        <v>0.04417436902206084</v>
       </c>
       <c r="E25">
-        <v>0.0772719419448471</v>
+        <v>0.04096396547090997</v>
       </c>
       <c r="F25">
-        <v>2.410363538931477</v>
+        <v>2.0614295775176</v>
       </c>
       <c r="G25">
-        <v>0.002552921421625913</v>
+        <v>0.0008004054997271165</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.209545922327592</v>
+        <v>1.701527332326776</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.600746453748968</v>
+        <v>5.058726103389461</v>
       </c>
       <c r="L25">
-        <v>0.121496129822912</v>
+        <v>0.06154967389944233</v>
       </c>
       <c r="M25">
-        <v>0.6538822468937653</v>
+        <v>1.013194107826251</v>
       </c>
       <c r="N25">
-        <v>2.027129558072446</v>
+        <v>0.886200135381678</v>
       </c>
       <c r="O25">
         <v>0</v>
